--- a/FlorenceCPL/FlorenceCPL/bin/Debug/rawMaterials.xlsx
+++ b/FlorenceCPL/FlorenceCPL/bin/Debug/rawMaterials.xlsx
@@ -461,7 +461,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -482,8 +482,8 @@
       <c r="D1" s="2">
         <v>100000</v>
       </c>
-      <c r="E1" s="2">
-        <v>10500</v>
+      <c r="E1">
+        <v>11550.000000000002</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="26.25">
@@ -499,8 +499,8 @@
       <c r="D2" s="2">
         <v>500000</v>
       </c>
-      <c r="E2" s="2">
-        <v>81000</v>
+      <c r="E2">
+        <v>89100</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -516,8 +516,8 @@
       <c r="D3" s="2">
         <v>5000</v>
       </c>
-      <c r="E3" s="2">
-        <v>4385</v>
+      <c r="E3">
+        <v>4823.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="26.25">
@@ -533,8 +533,8 @@
       <c r="D4" s="2">
         <v>10000</v>
       </c>
-      <c r="E4" s="2">
-        <v>3100</v>
+      <c r="E4">
+        <v>3410.0000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="26.25">
@@ -550,8 +550,8 @@
       <c r="D5" s="2">
         <v>10000</v>
       </c>
-      <c r="E5" s="2">
-        <v>3970</v>
+      <c r="E5">
+        <v>4367</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="26.25">
@@ -567,8 +567,8 @@
       <c r="D6" s="2">
         <v>10000</v>
       </c>
-      <c r="E6" s="2">
-        <v>2310</v>
+      <c r="E6">
+        <v>2541</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -584,8 +584,8 @@
       <c r="D7" s="2">
         <v>5000</v>
       </c>
-      <c r="E7" s="2">
-        <v>1185</v>
+      <c r="E7">
+        <v>1303.5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -601,8 +601,8 @@
       <c r="D8" s="2">
         <v>5000</v>
       </c>
-      <c r="E8" s="2">
-        <v>445</v>
+      <c r="E8">
+        <v>489.50000000000006</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="26.25">
@@ -618,8 +618,8 @@
       <c r="D9" s="2">
         <v>5000</v>
       </c>
-      <c r="E9" s="2">
-        <v>790</v>
+      <c r="E9">
+        <v>869.00000000000011</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="26.25">
@@ -635,8 +635,8 @@
       <c r="D10" s="2">
         <v>1000</v>
       </c>
-      <c r="E10" s="2">
-        <v>4350</v>
+      <c r="E10">
+        <v>4785</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="26.25">
@@ -652,8 +652,8 @@
       <c r="D11" s="2">
         <v>1000</v>
       </c>
-      <c r="E11" s="2">
-        <v>1165</v>
+      <c r="E11">
+        <v>1281.5</v>
       </c>
     </row>
   </sheetData>
